--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Document\dacnpm\b\DACN_HeThongDatVe\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF29E3-282F-4CB2-93A2-51706F07DD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE3D1D-27EE-4FE1-8DE9-5744D92B9CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -111,25 +111,16 @@
     <t>Thiết kế giao diện thêm, xóa, sửa thông tin phim, lịch chiếu</t>
   </si>
   <si>
-    <t>Xử lý chức năng tìm kiếm phim</t>
-  </si>
-  <si>
     <t>MỐC 1: Hoàn thành phiên bản đầu tiên của website đặt vé xem phim. Với các chức năng chính: Thêm, sửa, xóa phim, lịch chiếu, Tìm kiếm phim.</t>
   </si>
   <si>
     <t>Xây dựng Database, insert data vào database thông tin tài khoản (user, password),tổng hợp Database.</t>
   </si>
   <si>
-    <t>Thiết kế giao diện đăng nhập, đăng kí, tìm kiếm phim, tổng hợp nội dung SRS.</t>
-  </si>
-  <si>
     <t>Xử lý chức năng đăng ký, đăng nhập</t>
   </si>
   <si>
     <t>Tuần 3 (7/4 đến 21/4)</t>
-  </si>
-  <si>
-    <t>Activity và Sequence chức năng Đăng kí, đăng nhập</t>
   </si>
   <si>
     <t xml:space="preserve">Mốc  </t>
@@ -171,6 +162,12 @@
     <t>_ Code xử lý một số chức năng
 _ Sản phầm là trang web cho phép xem, tìm kiếm phim, lịch chiếu. 
 _ Có các chức năng: Đăng nhập, đăng kí, thêm, xóa, sửa phim, lịch chiếu.</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện đăng nhập, đăng kí, Tổng hợp nội dung SRS.</t>
+  </si>
+  <si>
+    <t>Code giao diện, Activity và Sequence chức năng Đăng kí, đăng nhập</t>
   </si>
 </sst>
 </file>
@@ -778,21 +775,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="82.109375" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="82.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="22" t="s">
         <v>6</v>
@@ -802,7 +799,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -810,9 +807,9 @@
       <c r="E2" s="23"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -830,15 +827,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -850,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
@@ -864,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="40"/>
       <c r="C6" s="37"/>
@@ -878,7 +875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="40"/>
       <c r="C7" s="37"/>
@@ -892,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="40"/>
       <c r="C8" s="37"/>
@@ -906,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="41"/>
       <c r="C9" s="38"/>
@@ -920,52 +917,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="46"/>
       <c r="C11" s="43"/>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="46"/>
       <c r="C12" s="43"/>
       <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="46"/>
       <c r="C13" s="43"/>
       <c r="D13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>22</v>
@@ -974,12 +977,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="46"/>
       <c r="C14" s="43"/>
       <c r="D14" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>14</v>
@@ -988,12 +991,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="47"/>
       <c r="C15" s="44"/>
       <c r="D15" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>15</v>
@@ -1002,105 +1005,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="28"/>
       <c r="C17" s="25"/>
       <c r="D17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="28"/>
       <c r="C18" s="25"/>
       <c r="D18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="28"/>
       <c r="C19" s="25"/>
       <c r="D19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
       <c r="D20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="34"/>
       <c r="C22" s="31"/>
       <c r="D22" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="34"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="34"/>
       <c r="C24" s="31"/>
       <c r="D24" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="35"/>
       <c r="C25" s="32"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE3D1D-27EE-4FE1-8DE9-5744D92B9CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AFD48-A698-43A0-AB30-A1DE12862D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -152,9 +152,6 @@
 _ Tạo dự án Spring boot và kết nối database</t>
   </si>
   <si>
-    <t>Hoàn thiện tài liệu SRS các phần đã thực hiện được, lên kế hoạch cho mốc tiếp theo</t>
-  </si>
-  <si>
     <t xml:space="preserve">_ Viết tài liệu SRS (Vẽ Activity và Sequence) cho một số chức năng
 _ Code giao diện một số chức năng                                              </t>
   </si>
@@ -168,6 +165,24 @@
   </si>
   <si>
     <t>Code giao diện, Activity và Sequence chức năng Đăng kí, đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xử lý chức năng tìm kiếm </t>
+  </si>
+  <si>
+    <t>Tuần 5 (21/4 đến 26/4)</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng chọn chỗ ngồi, chọn phòng</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng tạo đồ ăn và combo</t>
+  </si>
+  <si>
+    <t>Xây dựng Database, insert data vào database chức năng tạo đồ ăn và combo</t>
+  </si>
+  <si>
+    <t>Xây dựng Database, insert data vào database chức năng chọn phòng</t>
   </si>
 </sst>
 </file>
@@ -334,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,9 +370,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -458,6 +470,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,20 +812,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -828,13 +849,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -848,9 +869,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
@@ -862,9 +883,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
@@ -876,9 +897,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
@@ -890,9 +911,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
@@ -904,9 +925,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
@@ -918,11 +939,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -931,196 +952,257 @@
       <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="11" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="E23" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="33"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="33"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="13"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="33"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="34"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
     <mergeCell ref="A4:A25"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C16:C20"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Document\dacnpm\b\DACN_HeThongDatVe\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE3D1D-27EE-4FE1-8DE9-5744D92B9CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643E79EF-E77B-4C6B-BEF8-E080F8DB798D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Code giao diện, Activity và Sequence chức năng Đăng kí, đăng nhập</t>
+  </si>
+  <si>
+    <t>Hoàn Thành</t>
   </si>
 </sst>
 </file>
@@ -775,21 +778,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="82.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="82.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="22" t="s">
         <v>6</v>
@@ -799,7 +802,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -807,7 +810,7 @@
       <c r="E2" s="23"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -827,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>25</v>
       </c>
@@ -847,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
@@ -861,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="40"/>
       <c r="C6" s="37"/>
@@ -875,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="40"/>
       <c r="C7" s="37"/>
@@ -889,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="40"/>
       <c r="C8" s="37"/>
@@ -903,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="41"/>
       <c r="C9" s="38"/>
@@ -917,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="45" t="s">
         <v>10</v>
@@ -935,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="46"/>
       <c r="C11" s="43"/>
@@ -949,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="46"/>
       <c r="C12" s="43"/>
@@ -963,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="46"/>
       <c r="C13" s="43"/>
@@ -977,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="46"/>
       <c r="C14" s="43"/>
@@ -991,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="47"/>
       <c r="C15" s="44"/>
@@ -1005,7 +1008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="27" t="s">
         <v>28</v>
@@ -1021,7 +1024,7 @@
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="28"/>
       <c r="C17" s="25"/>
@@ -1033,7 +1036,7 @@
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="28"/>
       <c r="C18" s="25"/>
@@ -1045,7 +1048,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="28"/>
       <c r="C19" s="25"/>
@@ -1057,7 +1060,7 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -1069,7 +1072,7 @@
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="33" t="s">
         <v>20</v>
@@ -1080,10 +1083,14 @@
       <c r="D21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="34"/>
       <c r="C22" s="31"/>
@@ -1093,7 +1100,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="34"/>
       <c r="C23" s="31"/>
@@ -1101,7 +1108,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="34"/>
       <c r="C24" s="31"/>
@@ -1111,7 +1118,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A25" s="21"/>
       <c r="B25" s="35"/>
       <c r="C25" s="32"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Document\dacnpm\b\DACN_HeThongDatVe\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643E79EF-E77B-4C6B-BEF8-E080F8DB798D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B3BCC-4065-446B-A3AF-1703AF466521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>Hoàn Thành</t>
+  </si>
+  <si>
+    <t>Code giao diện quên mật khẩu , thêm trường email ở phần đăng kí</t>
+  </si>
+  <si>
+    <t>Code giao diện trang thông báo thành công khi ấn quên mật khẩu thành công</t>
+  </si>
+  <si>
+    <t>Code giao diện 404 khi không tìm thấy trang</t>
+  </si>
+  <si>
+    <t>Cấu hình JavaMail và ứng dụng thứ ba của Google</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng đăng xuất , quên mật khẩu</t>
   </si>
 </sst>
 </file>
@@ -776,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1037,9 @@
       <c r="E16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
@@ -1034,7 +1051,9 @@
       <c r="E17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
@@ -1046,7 +1065,9 @@
       <c r="E18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
@@ -1058,82 +1079,148 @@
       <c r="E19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
-      <c r="B21" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="B23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="13"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A29" s="21"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A4:A25"/>
+    <mergeCell ref="A4:A29"/>
     <mergeCell ref="B1:E2"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Document\dacnpm\b\DACN_HeThongDatVe\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B3BCC-4065-446B-A3AF-1703AF466521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBFC67-EDAE-4083-90E7-3FFDCDB3B425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Use Case Quản lý thông tin khách hàng, Use Case quản lí thông tin lịch chiếu</t>
   </si>
   <si>
-    <t>Phân công công việc, Use Case tổng hợp toàn hệ thống</t>
-  </si>
-  <si>
     <t>Lê Như Đạt</t>
   </si>
   <si>
@@ -105,30 +102,12 @@
     <t>Nguyễn Thái Đức (Nhóm trưởng)</t>
   </si>
   <si>
-    <t>Thiết kế giao diện trang chủ, xem thông tin phim, lịch chiếu</t>
-  </si>
-  <si>
-    <t>Thiết kế giao diện thêm, xóa, sửa thông tin phim, lịch chiếu</t>
-  </si>
-  <si>
-    <t>MỐC 1: Hoàn thành phiên bản đầu tiên của website đặt vé xem phim. Với các chức năng chính: Thêm, sửa, xóa phim, lịch chiếu, Tìm kiếm phim.</t>
-  </si>
-  <si>
-    <t>Xây dựng Database, insert data vào database thông tin tài khoản (user, password),tổng hợp Database.</t>
-  </si>
-  <si>
-    <t>Xử lý chức năng đăng ký, đăng nhập</t>
-  </si>
-  <si>
     <t>Tuần 3 (7/4 đến 21/4)</t>
   </si>
   <si>
     <t xml:space="preserve">Mốc  </t>
   </si>
   <si>
-    <t>_ Viết tài liệu SRS (Đặc tả chức năng toàn hệ thống)</t>
-  </si>
-  <si>
     <t>Activity và Sequence chức năng thêm, xóa, sửa phim</t>
   </si>
   <si>
@@ -138,54 +117,150 @@
     <t>Code giao diện trang chủ</t>
   </si>
   <si>
-    <t>Code giao diện xem thông tin phim, lịch chiếu</t>
-  </si>
-  <si>
     <t>Code giao diện thêm, xóa, sửa phim, lịch chiếu</t>
-  </si>
-  <si>
-    <t>Xử lý chức năng Thêm, Sửa, Xóa phim, lịch chiếu</t>
-  </si>
-  <si>
-    <t>_ Xây dựng giao diện (Prototype) của một số chức năng
-_ Thiết kế và thêm dữ liệu vào Database
-_ Tạo dự án Spring boot và kết nối database</t>
-  </si>
-  <si>
-    <t>Hoàn thiện tài liệu SRS các phần đã thực hiện được, lên kế hoạch cho mốc tiếp theo</t>
   </si>
   <si>
     <t xml:space="preserve">_ Viết tài liệu SRS (Vẽ Activity và Sequence) cho một số chức năng
 _ Code giao diện một số chức năng                                              </t>
   </si>
   <si>
-    <t>_ Code xử lý một số chức năng
-_ Sản phầm là trang web cho phép xem, tìm kiếm phim, lịch chiếu. 
-_ Có các chức năng: Đăng nhập, đăng kí, thêm, xóa, sửa phim, lịch chiếu.</t>
-  </si>
-  <si>
-    <t>Thiết kế giao diện đăng nhập, đăng kí, Tổng hợp nội dung SRS.</t>
-  </si>
-  <si>
-    <t>Code giao diện, Activity và Sequence chức năng Đăng kí, đăng nhập</t>
-  </si>
-  <si>
-    <t>Hoàn Thành</t>
-  </si>
-  <si>
-    <t>Code giao diện quên mật khẩu , thêm trường email ở phần đăng kí</t>
-  </si>
-  <si>
-    <t>Code giao diện trang thông báo thành công khi ấn quên mật khẩu thành công</t>
+    <t>Activity và Sequence chức năng chọn chỗ ngồi, chọn phòng</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng tạo đồ ăn và combo</t>
+  </si>
+  <si>
+    <t>Xây dựng Database, insert data vào database chức năng tạo đồ ăn và combo</t>
+  </si>
+  <si>
+    <t>Xây dựng Database, insert data vào database chức năng chọn phòng</t>
+  </si>
+  <si>
+    <t>Xây dựng Database, insert data vào database thông tin tài khoản (user, password)</t>
+  </si>
+  <si>
+    <t>Use Case tổng hợp toàn hệ thống</t>
+  </si>
+  <si>
+    <t>Tìm template, phân công công việc, viết tổng hợp SRS</t>
+  </si>
+  <si>
+    <t>_ Thiết kế và thêm dữ liệu vào Database
+_ Tạo dự án Spring boot và kết nối database</t>
+  </si>
+  <si>
+    <t>_ Viết tài liệu SRS (Vẽ UC và đặc tả chức năng toàn hệ thống)</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng Đăng kí, đăng nhập, đổi mật khẩu, quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Code giao diện đăng kí đăng nhập</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng đăng ký, đăng nhập, quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Code giao diện xem thông tin phim</t>
+  </si>
+  <si>
+    <t>_ Code xử lý một số chức năng của client
+_ Sản phầm là trang web cho phép xem thông tin phim
+_ Có các chức năng như: Đăng nhập, đăng kí, thêm, xóa, sửa phim</t>
+  </si>
+  <si>
+    <t>MỐC 1: Hoàn thành phiên bản đầu tiên của website đặt vé xem phim. Với các chức năng chính: Xem thông tin phim, đăng xuất, đăng nhập, đăng kí.</t>
+  </si>
+  <si>
+    <t>Cấu hình JavaMail và ứng dụng thứ ba của Google</t>
   </si>
   <si>
     <t>Code giao diện 404 khi không tìm thấy trang</t>
   </si>
   <si>
-    <t>Cấu hình JavaMail và ứng dụng thứ ba của Google</t>
-  </si>
-  <si>
-    <t>Xử lý chức năng đăng xuất , quên mật khẩu</t>
+    <t>Hoàn thiện tài liệu SRS các phần đã thực hiện được, lên kế hoạch cho mốc tiếp theo</t>
+  </si>
+  <si>
+    <t>Tuần 5 (21/4 đến 28/4)</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng Thêm, Sửa, Xóa phim, lịch chiếu, tìm kiếm phim</t>
+  </si>
+  <si>
+    <t>Xây dựng Database, insert data vào database chức năng xem lịch chiếu,Tổng hợp database</t>
+  </si>
+  <si>
+    <t>Tuần 6 (28/4 đến 5/5)</t>
+  </si>
+  <si>
+    <t>_Code xử lý các chức năng của chọn chỗ ngồi, chọn phòng</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng chọn chỗ ngồi</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng thanh toán online</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng tạo đồ ăn và combo</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng quản lí thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng thanh toán</t>
+  </si>
+  <si>
+    <t>_Code xử lý các chức năng của admin
+_Tối ưu hóa chức năng quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng quản lí thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng quản lí thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng quản lí thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng xem thống kê từng chi nhánh</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>MỐC 2: Hoàn thành phiên bản cuối cùng của website đặt vé xem phim. Với các chức năng chính còn lại: Đặt vé,thanh toán online, quản lí thông tin khách hàng, nhân viên và thống kê doanh thu .</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng thống kê từng chi nhánh</t>
+  </si>
+  <si>
+    <t>Code tạo mã QR cho hóa đơn</t>
+  </si>
+  <si>
+    <t>Vẽ Class Diagram tổng hợp</t>
+  </si>
+  <si>
+    <t>_Hoàn thiện tài liệu SRS và tối ưu hóa website</t>
+  </si>
+  <si>
+    <t>_Code xử lý các chức năng của thanh toán, quản lí thông tin nhân viên và khách hàng</t>
+  </si>
+  <si>
+    <t>Tổng hợp tài liệu SRS</t>
+  </si>
+  <si>
+    <t>Tối ưu hóa các chức năng của website</t>
+  </si>
+  <si>
+    <t>Kiểm tra bảo mật của website, phân quyền client và admin</t>
+  </si>
+  <si>
+    <t>Tuần 7 (5/5 đến 12/5)</t>
+  </si>
+  <si>
+    <t>Tuần 8 (12/5 đến 18/5)</t>
   </si>
 </sst>
 </file>
@@ -223,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,18 +308,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +337,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,131 +421,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,43 +848,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="82.109375" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="104.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -845,382 +902,605 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F25" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="F26" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20"/>
-      <c r="B25" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="13"/>
-    </row>
+      <c r="F29" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
+      <c r="B36" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A4:A29"/>
+  <mergeCells count="19">
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A4:A25"/>
     <mergeCell ref="B1:E2"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Document\dacnpm\b\DACN_HeThongDatVe\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B3BCC-4065-446B-A3AF-1703AF466521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309D06AE-ED94-4C35-B477-AAA33F4B1E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
